--- a/Cryptocoin_Earnings.xlsx
+++ b/Cryptocoin_Earnings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedroasc/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedroasc/Documents/Dev Projects/CryptoEarnings/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="32">
   <si>
     <t>Dia</t>
   </si>
@@ -115,6 +115,18 @@
   <si>
     <t>1.0</t>
   </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>First Version</t>
+  </si>
+  <si>
+    <t>Updte values until 26th of December, small bug fixes.</t>
+  </si>
 </sst>
 </file>
 
@@ -169,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +257,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +385,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -516,9 +540,6 @@
     <xf numFmtId="4" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -553,6 +574,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -837,657 +870,657 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="84" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="84" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.1640625" style="84" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="84"/>
+    <col min="1" max="1" width="35.33203125" style="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="83" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" style="83" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="87">
-        <v>5000</v>
-      </c>
-      <c r="C1" s="83" t="s">
+      <c r="B1" s="86">
+        <v>10000</v>
+      </c>
+      <c r="C1" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="88">
+      <c r="B3" s="87">
         <f>B1/6</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="83"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="83"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="83"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="83"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="83"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="83"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="82"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="83"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="83"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="83"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="83"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="83"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="83"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" s="83"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
-      <c r="O31" s="83"/>
-      <c r="P31" s="83"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32" s="83"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="83"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="83"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="82"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="83"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35" s="86"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1498,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AJ31" sqref="AJ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1520,82 +1553,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="88"/>
+      <c r="AJ1" s="88"/>
     </row>
     <row r="2" spans="1:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
     </row>
     <row r="3" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1726,7 +1759,7 @@
       </c>
       <c r="F4" s="8">
         <f>(Variables!B3*Coins!E4)+Variables!B3</f>
-        <v>892.32783021733064</v>
+        <v>1784.6556604346613</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>5</v>
@@ -1746,7 +1779,7 @@
       </c>
       <c r="L4" s="14">
         <f>(Variables!B3*Coins!K4)+Variables!B3</f>
-        <v>879.40743475446902</v>
+        <v>1758.814869508938</v>
       </c>
       <c r="M4" s="17" t="s">
         <v>7</v>
@@ -1766,7 +1799,7 @@
       </c>
       <c r="R4" s="20">
         <f>(Variables!B3*Coins!Q4)+Variables!B3</f>
-        <v>871.43296037495907</v>
+        <v>1742.8659207499181</v>
       </c>
       <c r="S4" s="22" t="s">
         <v>8</v>
@@ -1774,10 +1807,10 @@
       <c r="T4" s="22">
         <v>1</v>
       </c>
-      <c r="U4" s="22">
+      <c r="U4" s="93">
         <v>0.25035200000000002</v>
       </c>
-      <c r="V4" s="22">
+      <c r="V4" s="93">
         <v>0.25569900000000001</v>
       </c>
       <c r="W4" s="24">
@@ -1786,7 +1819,7 @@
       </c>
       <c r="X4" s="25">
         <f>(Variables!B3*Coins!W4)+Variables!B3</f>
-        <v>850.75942155946382</v>
+        <v>1701.5188431189276</v>
       </c>
       <c r="Y4" s="28" t="s">
         <v>9</v>
@@ -1806,7 +1839,7 @@
       </c>
       <c r="AD4" s="31">
         <f>(Variables!B3*Coins!AC4)+Variables!B3</f>
-        <v>925.92592592592598</v>
+        <v>1851.851851851852</v>
       </c>
       <c r="AE4" s="34" t="s">
         <v>10</v>
@@ -1826,7 +1859,7 @@
       </c>
       <c r="AJ4" s="37">
         <f>(Variables!B3*Coins!AI4)+Variables!B3</f>
-        <v>913.79310344827582</v>
+        <v>1827.5862068965516</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
@@ -1848,7 +1881,7 @@
       </c>
       <c r="F5" s="8">
         <f>(F4*E5)+F4</f>
-        <v>900.08713258941907</v>
+        <v>1800.1742651788381</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>5</v>
@@ -1863,12 +1896,12 @@
         <v>1434.98</v>
       </c>
       <c r="K5" s="13">
-        <f t="shared" ref="K5:K21" si="0">(J5-I5)/J5</f>
+        <f t="shared" ref="K5:K29" si="0">(J5-I5)/J5</f>
         <v>-1.8871343154608377E-2</v>
       </c>
       <c r="L5" s="14">
         <f>(L4*K5)+L4</f>
-        <v>862.8118352805036</v>
+        <v>1725.6236705610072</v>
       </c>
       <c r="M5" s="17" t="s">
         <v>7</v>
@@ -1883,12 +1916,12 @@
         <v>463.45</v>
       </c>
       <c r="Q5" s="19">
-        <f t="shared" ref="Q5:Q21" si="1">(P5-O5)/P5</f>
+        <f t="shared" ref="Q5:Q29" si="1">(P5-O5)/P5</f>
         <v>-7.3362822310929637E-3</v>
       </c>
       <c r="R5" s="20">
         <f>(R4*Q5)+R4</f>
-        <v>865.03988223217152</v>
+        <v>1730.079764464343</v>
       </c>
       <c r="S5" s="22" t="s">
         <v>8</v>
@@ -1896,19 +1929,19 @@
       <c r="T5" s="22">
         <v>2</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5" s="93">
         <v>0.25565599999999999</v>
       </c>
-      <c r="V5" s="22">
+      <c r="V5" s="93">
         <v>0.255492</v>
       </c>
       <c r="W5" s="24">
-        <f t="shared" ref="W5:W21" si="2">(V5-U5)/V5</f>
+        <f t="shared" ref="W5:W29" si="2">(V5-U5)/V5</f>
         <v>-6.4189876786747719E-4</v>
       </c>
       <c r="X5" s="25">
         <f>(X4*W5)+X4</f>
-        <v>850.21332013501319</v>
+        <v>1700.4266402700264</v>
       </c>
       <c r="Y5" s="28" t="s">
         <v>9</v>
@@ -1923,12 +1956,12 @@
         <v>100.28</v>
       </c>
       <c r="AC5" s="30">
-        <f t="shared" ref="AC5:AC21" si="3">(AB5-AA5)/AB5</f>
+        <f t="shared" ref="AC5:AC29" si="3">(AB5-AA5)/AB5</f>
         <v>1.3362584762664572E-2</v>
       </c>
       <c r="AD5" s="31">
         <f>(AD4*AC5)+AD4</f>
-        <v>938.29868959505984</v>
+        <v>1876.5973791901197</v>
       </c>
       <c r="AE5" s="34" t="s">
         <v>10</v>
@@ -1943,12 +1976,12 @@
         <v>1.44</v>
       </c>
       <c r="AI5" s="36">
-        <f t="shared" ref="AI5:AI21" si="4">(AH5-AG5)/AH5</f>
+        <f t="shared" ref="AI5:AI29" si="4">(AH5-AG5)/AH5</f>
         <v>1.3888888888888902E-2</v>
       </c>
       <c r="AJ5" s="37">
         <f>(AJ4*AI5)+AJ4</f>
-        <v>926.4846743295019</v>
+        <v>1852.9693486590038</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
@@ -1965,12 +1998,12 @@
         <v>11323.2</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" ref="E6:E21" si="5">(D6-C6)/D6</f>
+        <f t="shared" ref="E6:E29" si="5">(D6-C6)/D6</f>
         <v>2.1239578917620461E-2</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F21" si="6">(F5*E6)+F5</f>
-        <v>919.20460427478679</v>
+        <f t="shared" ref="F6:F29" si="6">(F5*E6)+F5</f>
+        <v>1838.4092085495736</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>5</v>
@@ -1989,8 +2022,8 @@
         <v>7.985614739122919E-2</v>
       </c>
       <c r="L6" s="14">
-        <f t="shared" ref="L6:L21" si="7">(L5*K6)+L5</f>
-        <v>931.71266436956046</v>
+        <f t="shared" ref="L6:L29" si="7">(L5*K6)+L5</f>
+        <v>1863.4253287391209</v>
       </c>
       <c r="M6" s="17" t="s">
         <v>7</v>
@@ -2009,8 +2042,8 @@
         <v>4.6152194912526222E-3</v>
       </c>
       <c r="R6" s="20">
-        <f t="shared" ref="R6:R21" si="8">(R5*Q6)+R5</f>
-        <v>869.03223115736034</v>
+        <f t="shared" ref="R6:R29" si="8">(R5*Q6)+R5</f>
+        <v>1738.0644623147207</v>
       </c>
       <c r="S6" s="22" t="s">
         <v>8</v>
@@ -2018,10 +2051,10 @@
       <c r="T6" s="22">
         <v>3</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6" s="93">
         <v>0.25552999999999998</v>
       </c>
-      <c r="V6" s="22">
+      <c r="V6" s="93">
         <v>0.252558</v>
       </c>
       <c r="W6" s="24">
@@ -2029,8 +2062,8 @@
         <v>-1.1767593978412779E-2</v>
       </c>
       <c r="X6" s="25">
-        <f t="shared" ref="X6:X21" si="9">(X5*W6)+X5</f>
-        <v>840.20835498862607</v>
+        <f t="shared" ref="X6:X29" si="9">(X5*W6)+X5</f>
+        <v>1680.4167099772521</v>
       </c>
       <c r="Y6" s="28" t="s">
         <v>9</v>
@@ -2049,8 +2082,8 @@
         <v>1.0566857594311745E-2</v>
       </c>
       <c r="AD6" s="31">
-        <f t="shared" ref="AD6:AD21" si="10">(AD5*AC6)+AD5</f>
-        <v>948.2135582289402</v>
+        <f t="shared" ref="AD6:AD29" si="10">(AD5*AC6)+AD5</f>
+        <v>1896.4271164578804</v>
       </c>
       <c r="AE6" s="34" t="s">
         <v>10</v>
@@ -2069,8 +2102,8 @@
         <v>0.23404255319148934</v>
       </c>
       <c r="AJ6" s="37">
-        <f t="shared" ref="AJ6:AJ21" si="11">(AJ5*AI6)+AJ5</f>
-        <v>1143.3215130023641</v>
+        <f t="shared" ref="AJ6:AJ29" si="11">(AJ5*AI6)+AJ5</f>
+        <v>2286.6430260047282</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
@@ -2092,7 +2125,7 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" si="6"/>
-        <v>946.1565424538627</v>
+        <v>1892.3130849077254</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>5</v>
@@ -2112,7 +2145,7 @@
       </c>
       <c r="L7" s="14">
         <f t="shared" si="7"/>
-        <v>941.61519858488771</v>
+        <v>1883.2303971697754</v>
       </c>
       <c r="M7" s="17" t="s">
         <v>7</v>
@@ -2132,7 +2165,7 @@
       </c>
       <c r="R7" s="20">
         <f t="shared" si="8"/>
-        <v>876.70233698318555</v>
+        <v>1753.4046739663711</v>
       </c>
       <c r="S7" s="22" t="s">
         <v>8</v>
@@ -2140,10 +2173,10 @@
       <c r="T7" s="22">
         <v>4</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U7" s="93">
         <v>0.252919</v>
       </c>
-      <c r="V7" s="22">
+      <c r="V7" s="93">
         <v>0.25357099999999999</v>
       </c>
       <c r="W7" s="24">
@@ -2152,7 +2185,7 @@
       </c>
       <c r="X7" s="25">
         <f t="shared" si="9"/>
-        <v>842.36875916517852</v>
+        <v>1684.737518330357</v>
       </c>
       <c r="Y7" s="28" t="s">
         <v>9</v>
@@ -2172,7 +2205,7 @@
       </c>
       <c r="AD7" s="31">
         <f t="shared" si="10"/>
-        <v>974.04746560969784</v>
+        <v>1948.0949312193957</v>
       </c>
       <c r="AE7" s="34" t="s">
         <v>10</v>
@@ -2192,7 +2225,7 @@
       </c>
       <c r="AJ7" s="37">
         <f t="shared" si="11"/>
-        <v>1503.7163377531092</v>
+        <v>3007.4326755062184</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
@@ -2214,7 +2247,7 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" si="6"/>
-        <v>964.49737181994919</v>
+        <v>1928.9947436398984</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>5</v>
@@ -2234,7 +2267,7 @@
       </c>
       <c r="L8" s="14">
         <f t="shared" si="7"/>
-        <v>892.51716202918465</v>
+        <v>1785.0343240583693</v>
       </c>
       <c r="M8" s="17" t="s">
         <v>7</v>
@@ -2254,7 +2287,7 @@
       </c>
       <c r="R8" s="20">
         <f t="shared" si="8"/>
-        <v>863.43674515480495</v>
+        <v>1726.8734903096099</v>
       </c>
       <c r="S8" s="22" t="s">
         <v>8</v>
@@ -2262,10 +2295,10 @@
       <c r="T8" s="22">
         <v>5</v>
       </c>
-      <c r="U8" s="22">
+      <c r="U8" s="93">
         <v>0.25359799999999999</v>
       </c>
-      <c r="V8" s="22">
+      <c r="V8" s="93">
         <v>0.24610099999999999</v>
       </c>
       <c r="W8" s="24">
@@ -2274,7 +2307,7 @@
       </c>
       <c r="X8" s="25">
         <f t="shared" si="9"/>
-        <v>816.70759327206406</v>
+        <v>1633.4151865441281</v>
       </c>
       <c r="Y8" s="28" t="s">
         <v>9</v>
@@ -2294,7 +2327,7 @@
       </c>
       <c r="AD8" s="31">
         <f t="shared" si="10"/>
-        <v>956.16456292076987</v>
+        <v>1912.3291258415397</v>
       </c>
       <c r="AE8" s="34" t="s">
         <v>10</v>
@@ -2314,7 +2347,7 @@
       </c>
       <c r="AJ8" s="37">
         <f t="shared" si="11"/>
-        <v>1910.9728458945763</v>
+        <v>3821.9456917891525</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
@@ -2336,7 +2369,7 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" si="6"/>
-        <v>1124.3144817249151</v>
+        <v>2248.6289634498303</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>5</v>
@@ -2356,7 +2389,7 @@
       </c>
       <c r="L9" s="14">
         <f t="shared" si="7"/>
-        <v>849.835357462248</v>
+        <v>1699.670714924496</v>
       </c>
       <c r="M9" s="17" t="s">
         <v>7</v>
@@ -2376,7 +2409,7 @@
       </c>
       <c r="R9" s="20">
         <f t="shared" si="8"/>
-        <v>794.92025222983011</v>
+        <v>1589.8405044596602</v>
       </c>
       <c r="S9" s="22" t="s">
         <v>8</v>
@@ -2384,10 +2417,10 @@
       <c r="T9" s="22">
         <v>6</v>
       </c>
-      <c r="U9" s="22">
+      <c r="U9" s="93">
         <v>0.245416</v>
       </c>
-      <c r="V9" s="22">
+      <c r="V9" s="93">
         <v>0.232544</v>
       </c>
       <c r="W9" s="24">
@@ -2396,7 +2429,7 @@
       </c>
       <c r="X9" s="25">
         <f t="shared" si="9"/>
-        <v>771.50040607051073</v>
+        <v>1543.0008121410215</v>
       </c>
       <c r="Y9" s="28" t="s">
         <v>9</v>
@@ -2416,7 +2449,7 @@
       </c>
       <c r="AD9" s="31">
         <f t="shared" si="10"/>
-        <v>935.86929118164426</v>
+        <v>1871.7385823632885</v>
       </c>
       <c r="AE9" s="34" t="s">
         <v>10</v>
@@ -2436,7 +2469,7 @@
       </c>
       <c r="AJ9" s="37">
         <f t="shared" si="11"/>
-        <v>2152.0359342528373</v>
+        <v>4304.0718685056745</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
@@ -2458,7 +2491,7 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" si="6"/>
-        <v>1352.5478655690943</v>
+        <v>2705.0957311381885</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>5</v>
@@ -2478,7 +2511,7 @@
       </c>
       <c r="L10" s="14">
         <f t="shared" si="7"/>
-        <v>786.12308711926744</v>
+        <v>1572.2461742385349</v>
       </c>
       <c r="M10" s="17" t="s">
         <v>7</v>
@@ -2498,7 +2531,7 @@
       </c>
       <c r="R10" s="20">
         <f t="shared" si="8"/>
-        <v>809.63252595264464</v>
+        <v>1619.2650519052893</v>
       </c>
       <c r="S10" s="22" t="s">
         <v>8</v>
@@ -2506,10 +2539,10 @@
       <c r="T10" s="22">
         <v>7</v>
       </c>
-      <c r="U10" s="22">
+      <c r="U10" s="93">
         <v>0.232623</v>
       </c>
-      <c r="V10" s="22">
+      <c r="V10" s="93">
         <v>0.22282299999999999</v>
       </c>
       <c r="W10" s="24">
@@ -2518,7 +2551,7 @@
       </c>
       <c r="X10" s="25">
         <f t="shared" si="9"/>
-        <v>737.56897179536406</v>
+        <v>1475.1379435907281</v>
       </c>
       <c r="Y10" s="28" t="s">
         <v>9</v>
@@ -2538,7 +2571,7 @@
       </c>
       <c r="AD10" s="31">
         <f t="shared" si="10"/>
-        <v>919.77793802163842</v>
+        <v>1839.5558760432768</v>
       </c>
       <c r="AE10" s="34" t="s">
         <v>10</v>
@@ -2558,7 +2591,7 @@
       </c>
       <c r="AJ10" s="37">
         <f t="shared" si="11"/>
-        <v>1980.4968380442776</v>
+        <v>3960.9936760885553</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
@@ -2580,7 +2613,7 @@
       </c>
       <c r="F11" s="8">
         <f t="shared" si="6"/>
-        <v>1251.8581729924483</v>
+        <v>2503.7163459848966</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>5</v>
@@ -2600,7 +2633,7 @@
       </c>
       <c r="L11" s="14">
         <f t="shared" si="7"/>
-        <v>858.59140145507604</v>
+        <v>1717.1828029101521</v>
       </c>
       <c r="M11" s="17" t="s">
         <v>7</v>
@@ -2620,7 +2653,7 @@
       </c>
       <c r="R11" s="20">
         <f t="shared" si="8"/>
-        <v>846.98679726383818</v>
+        <v>1693.9735945276764</v>
       </c>
       <c r="S11" s="22" t="s">
         <v>8</v>
@@ -2628,10 +2661,10 @@
       <c r="T11" s="22">
         <v>8</v>
       </c>
-      <c r="U11" s="22">
+      <c r="U11" s="93">
         <v>0.223636</v>
       </c>
-      <c r="V11" s="22">
+      <c r="V11" s="93">
         <v>0.25212499999999999</v>
       </c>
       <c r="W11" s="24">
@@ -2640,7 +2673,7 @@
       </c>
       <c r="X11" s="25">
         <f t="shared" si="9"/>
-        <v>820.91097452209931</v>
+        <v>1641.8219490441986</v>
       </c>
       <c r="Y11" s="28" t="s">
         <v>9</v>
@@ -2660,7 +2693,7 @@
       </c>
       <c r="AD11" s="31">
         <f t="shared" si="10"/>
-        <v>1115.152474796439</v>
+        <v>2230.3049495928781</v>
       </c>
       <c r="AE11" s="34" t="s">
         <v>10</v>
@@ -2680,7 +2713,7 @@
       </c>
       <c r="AJ11" s="37">
         <f t="shared" si="11"/>
-        <v>2324.4154506387931</v>
+        <v>4648.8309012775862</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
@@ -2702,7 +2735,7 @@
       </c>
       <c r="F12" s="8">
         <f t="shared" si="6"/>
-        <v>1140.9178488109155</v>
+        <v>2281.8356976218311</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>5</v>
@@ -2722,7 +2755,7 @@
       </c>
       <c r="L12" s="14">
         <f t="shared" si="7"/>
-        <v>825.36350138174328</v>
+        <v>1650.7270027634866</v>
       </c>
       <c r="M12" s="17" t="s">
         <v>7</v>
@@ -2742,7 +2775,7 @@
       </c>
       <c r="R12" s="20">
         <f t="shared" si="8"/>
-        <v>875.89346388217746</v>
+        <v>1751.7869277643549</v>
       </c>
       <c r="S12" s="22" t="s">
         <v>8</v>
@@ -2750,10 +2783,10 @@
       <c r="T12" s="22">
         <v>9</v>
       </c>
-      <c r="U12" s="22">
+      <c r="U12" s="93">
         <v>0.252162</v>
       </c>
-      <c r="V12" s="22">
+      <c r="V12" s="93">
         <v>0.24470800000000001</v>
       </c>
       <c r="W12" s="24">
@@ -2762,7 +2795,7 @@
       </c>
       <c r="X12" s="25">
         <f t="shared" si="9"/>
-        <v>795.90537436154989</v>
+        <v>1591.8107487230998</v>
       </c>
       <c r="Y12" s="28" t="s">
         <v>9</v>
@@ -2782,7 +2815,7 @@
       </c>
       <c r="AD12" s="31">
         <f t="shared" si="10"/>
-        <v>1314.5639196582604</v>
+        <v>2629.1278393165207</v>
       </c>
       <c r="AE12" s="34" t="s">
         <v>10</v>
@@ -2802,7 +2835,7 @@
       </c>
       <c r="AJ12" s="37">
         <f t="shared" si="11"/>
-        <v>2140.6475624472646</v>
+        <v>4281.2951248945292</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
@@ -2824,7 +2857,7 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" si="6"/>
-        <v>1162.1041929112773</v>
+        <v>2324.2083858225546</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>5</v>
@@ -2844,7 +2877,7 @@
       </c>
       <c r="L13" s="14">
         <f t="shared" si="7"/>
-        <v>769.98659916367671</v>
+        <v>1539.9731983273534</v>
       </c>
       <c r="M13" s="17" t="s">
         <v>7</v>
@@ -2864,7 +2897,7 @@
       </c>
       <c r="R13" s="20">
         <f t="shared" si="8"/>
-        <v>814.2842772417282</v>
+        <v>1628.5685544834564</v>
       </c>
       <c r="S13" s="22" t="s">
         <v>8</v>
@@ -2872,10 +2905,10 @@
       <c r="T13" s="22">
         <v>10</v>
       </c>
-      <c r="U13" s="22">
+      <c r="U13" s="93">
         <v>0.24554799999999999</v>
       </c>
-      <c r="V13" s="22">
+      <c r="V13" s="93">
         <v>0.23733299999999999</v>
       </c>
       <c r="W13" s="24">
@@ -2884,7 +2917,7 @@
       </c>
       <c r="X13" s="25">
         <f t="shared" si="9"/>
-        <v>768.35605483843199</v>
+        <v>1536.712109676864</v>
       </c>
       <c r="Y13" s="28" t="s">
         <v>9</v>
@@ -2904,7 +2937,7 @@
       </c>
       <c r="AD13" s="31">
         <f t="shared" si="10"/>
-        <v>1252.929919119998</v>
+        <v>2505.859838239996</v>
       </c>
       <c r="AE13" s="34" t="s">
         <v>10</v>
@@ -2924,7 +2957,7 @@
       </c>
       <c r="AJ13" s="37">
         <f t="shared" si="11"/>
-        <v>1865.9397638765502</v>
+        <v>3731.8795277531003</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
@@ -2946,7 +2979,7 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" si="6"/>
-        <v>1265.6703960181383</v>
+        <v>2531.3407920362765</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>5</v>
@@ -2966,7 +2999,7 @@
       </c>
       <c r="L14" s="14">
         <f t="shared" si="7"/>
-        <v>825.91067749942749</v>
+        <v>1651.821354998855</v>
       </c>
       <c r="M14" s="17" t="s">
         <v>7</v>
@@ -2986,7 +3019,7 @@
       </c>
       <c r="R14" s="20">
         <f t="shared" si="8"/>
-        <v>932.48938313941892</v>
+        <v>1864.9787662788378</v>
       </c>
       <c r="S14" s="22" t="s">
         <v>8</v>
@@ -2994,10 +3027,10 @@
       <c r="T14" s="22">
         <v>11</v>
       </c>
-      <c r="U14" s="22">
+      <c r="U14" s="93">
         <v>0.23657400000000001</v>
       </c>
-      <c r="V14" s="22">
+      <c r="V14" s="93">
         <v>0.251691</v>
       </c>
       <c r="W14" s="24">
@@ -3006,7 +3039,7 @@
       </c>
       <c r="X14" s="25">
         <f t="shared" si="9"/>
-        <v>814.5048582560853</v>
+        <v>1629.0097165121706</v>
       </c>
       <c r="Y14" s="28" t="s">
         <v>9</v>
@@ -3026,7 +3059,7 @@
       </c>
       <c r="AD14" s="31">
         <f t="shared" si="10"/>
-        <v>1638.6357961824287</v>
+        <v>3277.2715923648575</v>
       </c>
       <c r="AE14" s="34" t="s">
         <v>10</v>
@@ -3046,7 +3079,7 @@
       </c>
       <c r="AJ14" s="37">
         <f t="shared" si="11"/>
-        <v>1922.7482344395364</v>
+        <v>3845.4964688790728</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
@@ -3068,7 +3101,7 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" si="6"/>
-        <v>1301.6883024840588</v>
+        <v>2603.3766049681176</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>5</v>
@@ -3088,7 +3121,7 @@
       </c>
       <c r="L15" s="14">
         <f t="shared" si="7"/>
-        <v>921.87306744436194</v>
+        <v>1843.7461348887239</v>
       </c>
       <c r="M15" s="17" t="s">
         <v>7</v>
@@ -3108,7 +3141,7 @@
       </c>
       <c r="R15" s="20">
         <f t="shared" si="8"/>
-        <v>1117.3468182262657</v>
+        <v>2234.6936364525313</v>
       </c>
       <c r="S15" s="22" t="s">
         <v>8</v>
@@ -3116,10 +3149,10 @@
       <c r="T15" s="22">
         <v>12</v>
       </c>
-      <c r="U15" s="22">
+      <c r="U15" s="93">
         <v>0.25225799999999998</v>
       </c>
-      <c r="V15" s="22">
+      <c r="V15" s="93">
         <v>0.37354100000000001</v>
       </c>
       <c r="W15" s="24">
@@ -3128,7 +3161,7 @@
       </c>
       <c r="X15" s="25">
         <f t="shared" si="9"/>
-        <v>1078.962020184422</v>
+        <v>2157.9240403688441</v>
       </c>
       <c r="Y15" s="28" t="s">
         <v>9</v>
@@ -3148,7 +3181,7 @@
       </c>
       <c r="AD15" s="31">
         <f t="shared" si="10"/>
-        <v>2176.1058495228826</v>
+        <v>4352.2116990457653</v>
       </c>
       <c r="AE15" s="34" t="s">
         <v>10</v>
@@ -3168,7 +3201,7 @@
       </c>
       <c r="AJ15" s="37">
         <f t="shared" si="11"/>
-        <v>2110.1347149145759</v>
+        <v>4220.2694298291517</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
@@ -3190,7 +3223,7 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" si="6"/>
-        <v>1215.0740919885691</v>
+        <v>2430.1481839771382</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>5</v>
@@ -3210,7 +3243,7 @@
       </c>
       <c r="L16" s="14">
         <f t="shared" si="7"/>
-        <v>916.51724095854081</v>
+        <v>1833.0344819170816</v>
       </c>
       <c r="M16" s="17" t="s">
         <v>7</v>
@@ -3230,7 +3263,7 @@
       </c>
       <c r="R16" s="20">
         <f t="shared" si="8"/>
-        <v>1209.339485674466</v>
+        <v>2418.678971348932</v>
       </c>
       <c r="S16" s="22" t="s">
         <v>8</v>
@@ -3238,10 +3271,10 @@
       <c r="T16" s="22">
         <v>13</v>
       </c>
-      <c r="U16" s="22">
+      <c r="U16" s="93">
         <v>0.37268899999999999</v>
       </c>
-      <c r="V16" s="22">
+      <c r="V16" s="93">
         <v>0.47106300000000001</v>
       </c>
       <c r="W16" s="24">
@@ -3250,7 +3283,7 @@
       </c>
       <c r="X16" s="25">
         <f t="shared" si="9"/>
-        <v>1304.2860421806781</v>
+        <v>2608.5720843613562</v>
       </c>
       <c r="Y16" s="28" t="s">
         <v>9</v>
@@ -3270,7 +3303,7 @@
       </c>
       <c r="AD16" s="31">
         <f t="shared" si="10"/>
-        <v>2084.3440827022878</v>
+        <v>4168.6881654045756</v>
       </c>
       <c r="AE16" s="34" t="s">
         <v>10</v>
@@ -3290,7 +3323,7 @@
       </c>
       <c r="AJ16" s="37">
         <f t="shared" si="11"/>
-        <v>1785.1017392675874</v>
+        <v>3570.2034785351748</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
@@ -3312,7 +3345,7 @@
       </c>
       <c r="F17" s="8">
         <f t="shared" si="6"/>
-        <v>1228.2342158778924</v>
+        <v>2456.4684317557849</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>5</v>
@@ -3332,7 +3365,7 @@
       </c>
       <c r="L17" s="14">
         <f t="shared" si="7"/>
-        <v>1086.8812822033749</v>
+        <v>2173.7625644067498</v>
       </c>
       <c r="M17" s="17" t="s">
         <v>7</v>
@@ -3352,7 +3385,7 @@
       </c>
       <c r="R17" s="20">
         <f t="shared" si="8"/>
-        <v>1201.0491960210109</v>
+        <v>2402.0983920420217</v>
       </c>
       <c r="S17" s="22" t="s">
         <v>8</v>
@@ -3360,10 +3393,10 @@
       <c r="T17" s="22">
         <v>14</v>
       </c>
-      <c r="U17" s="22">
+      <c r="U17" s="93">
         <v>0.47064800000000001</v>
       </c>
-      <c r="V17" s="22">
+      <c r="V17" s="93">
         <v>0.864263</v>
       </c>
       <c r="W17" s="24">
@@ -3372,7 +3405,7 @@
       </c>
       <c r="X17" s="25">
         <f t="shared" si="9"/>
-        <v>1898.3026210379792</v>
+        <v>3796.6052420759584</v>
       </c>
       <c r="Y17" s="28" t="s">
         <v>9</v>
@@ -3392,7 +3425,7 @@
       </c>
       <c r="AD17" s="31">
         <f t="shared" si="10"/>
-        <v>1921.1514249544659</v>
+        <v>3842.3028499089319</v>
       </c>
       <c r="AE17" s="34" t="s">
         <v>10</v>
@@ -3412,7 +3445,7 @@
       </c>
       <c r="AJ17" s="37">
         <f t="shared" si="11"/>
-        <v>1652.8719808033218</v>
+        <v>3305.7439616066436</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.2">
@@ -3434,7 +3467,7 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" si="6"/>
-        <v>1304.9238537633835</v>
+        <v>2609.847707526767</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>5</v>
@@ -3454,7 +3487,7 @@
       </c>
       <c r="L18" s="14">
         <f t="shared" si="7"/>
-        <v>991.55174233389857</v>
+        <v>1983.1034846677971</v>
       </c>
       <c r="M18" s="17" t="s">
         <v>7</v>
@@ -3474,7 +3507,7 @@
       </c>
       <c r="R18" s="20">
         <f t="shared" si="8"/>
-        <v>1180.1148444854266</v>
+        <v>2360.2296889708532</v>
       </c>
       <c r="S18" s="22" t="s">
         <v>8</v>
@@ -3482,10 +3515,10 @@
       <c r="T18" s="22">
         <v>15</v>
       </c>
-      <c r="U18" s="22">
+      <c r="U18" s="93">
         <v>0.86175999999999997</v>
       </c>
-      <c r="V18" s="22">
+      <c r="V18" s="93">
         <v>0.75618099999999999</v>
       </c>
       <c r="W18" s="24">
@@ -3494,7 +3527,7 @@
       </c>
       <c r="X18" s="25">
         <f t="shared" si="9"/>
-        <v>1633.2590766662365</v>
+        <v>3266.518153332473</v>
       </c>
       <c r="Y18" s="28" t="s">
         <v>9</v>
@@ -3514,7 +3547,7 @@
       </c>
       <c r="AD18" s="31">
         <f t="shared" si="10"/>
-        <v>2041.6960186678336</v>
+        <v>4083.3920373356673</v>
       </c>
       <c r="AE18" s="34" t="s">
         <v>10</v>
@@ -3534,7 +3567,7 @@
       </c>
       <c r="AJ18" s="37">
         <f t="shared" si="11"/>
-        <v>1707.9677134967658</v>
+        <v>3415.9354269935316</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
@@ -3556,7 +3589,7 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" si="6"/>
-        <v>1421.1846488628519</v>
+        <v>2842.3692977257037</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>5</v>
@@ -3576,7 +3609,7 @@
       </c>
       <c r="L19" s="14">
         <f t="shared" si="7"/>
-        <v>978.91164225985949</v>
+        <v>1957.823284519719</v>
       </c>
       <c r="M19" s="17" t="s">
         <v>7</v>
@@ -3596,7 +3629,7 @@
       </c>
       <c r="R19" s="20">
         <f t="shared" si="8"/>
-        <v>1197.0993042629993</v>
+        <v>2394.1986085259987</v>
       </c>
       <c r="S19" s="22" t="s">
         <v>8</v>
@@ -3604,10 +3637,10 @@
       <c r="T19" s="22">
         <v>16</v>
       </c>
-      <c r="U19" s="22">
+      <c r="U19" s="93">
         <v>0.75549299999999997</v>
       </c>
-      <c r="V19" s="22">
+      <c r="V19" s="93">
         <v>0.75864200000000004</v>
       </c>
       <c r="W19" s="24">
@@ -3616,7 +3649,7 @@
       </c>
       <c r="X19" s="25">
         <f t="shared" si="9"/>
-        <v>1640.0384704150958</v>
+        <v>3280.0769408301917</v>
       </c>
       <c r="Y19" s="28" t="s">
         <v>9</v>
@@ -3636,7 +3669,7 @@
       </c>
       <c r="AD19" s="31">
         <f t="shared" si="10"/>
-        <v>2039.1692516781457</v>
+        <v>4078.3385033562913</v>
       </c>
       <c r="AE19" s="34" t="s">
         <v>10</v>
@@ -3656,7 +3689,7 @@
       </c>
       <c r="AJ19" s="37">
         <f t="shared" si="11"/>
-        <v>1576.2236474419187</v>
+        <v>3152.4472948838375</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
@@ -3678,7 +3711,7 @@
       </c>
       <c r="F20" s="8">
         <f t="shared" si="6"/>
-        <v>1396.3112445448999</v>
+        <v>2792.6224890897997</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>5</v>
@@ -3698,7 +3731,7 @@
       </c>
       <c r="L20" s="14">
         <f t="shared" si="7"/>
-        <v>1005.4748044153586</v>
+        <v>2010.9496088307171</v>
       </c>
       <c r="M20" s="17" t="s">
         <v>7</v>
@@ -3718,7 +3751,7 @@
       </c>
       <c r="R20" s="20">
         <f t="shared" si="8"/>
-        <v>1236.5714249930247</v>
+        <v>2473.1428499860494</v>
       </c>
       <c r="S20" s="22" t="s">
         <v>8</v>
@@ -3726,10 +3759,10 @@
       <c r="T20" s="22">
         <v>17</v>
       </c>
-      <c r="U20" s="22">
+      <c r="U20" s="93">
         <v>0.75412500000000005</v>
       </c>
-      <c r="V20" s="22">
+      <c r="V20" s="93">
         <v>0.72836599999999996</v>
       </c>
       <c r="W20" s="24">
@@ -3738,7 +3771,7 @@
       </c>
       <c r="X20" s="25">
         <f t="shared" si="9"/>
-        <v>1582.0377524252081</v>
+        <v>3164.0755048504161</v>
       </c>
       <c r="Y20" s="28" t="s">
         <v>9</v>
@@ -3758,7 +3791,7 @@
       </c>
       <c r="AD20" s="31">
         <f t="shared" si="10"/>
-        <v>2147.5513021407082</v>
+        <v>4295.1026042814165</v>
       </c>
       <c r="AE20" s="34" t="s">
         <v>10</v>
@@ -3778,7 +3811,7 @@
       </c>
       <c r="AJ20" s="37">
         <f t="shared" si="11"/>
-        <v>1688.5245688881623</v>
+        <v>3377.0491377763246</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
@@ -3800,7 +3833,7 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" si="6"/>
-        <v>1396.8810422715874</v>
+        <v>2793.7620845431748</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>5</v>
@@ -3820,7 +3853,7 @@
       </c>
       <c r="L21" s="14">
         <f t="shared" si="7"/>
-        <v>1155.350348523506</v>
+        <v>2310.700697047012</v>
       </c>
       <c r="M21" s="17" t="s">
         <v>7</v>
@@ -3840,7 +3873,7 @@
       </c>
       <c r="R21" s="20">
         <f t="shared" si="8"/>
-        <v>1350.0296231660859</v>
+        <v>2700.0592463321718</v>
       </c>
       <c r="S21" s="22" t="s">
         <v>8</v>
@@ -3848,10 +3881,10 @@
       <c r="T21" s="22">
         <v>18</v>
       </c>
-      <c r="U21" s="22">
+      <c r="U21" s="93">
         <v>0.72803600000000002</v>
       </c>
-      <c r="V21" s="22">
+      <c r="V21" s="93">
         <v>0.77840699999999996</v>
       </c>
       <c r="W21" s="24">
@@ -3860,7 +3893,7 @@
       </c>
       <c r="X21" s="25">
         <f t="shared" si="9"/>
-        <v>1684.411990616039</v>
+        <v>3368.823981232078</v>
       </c>
       <c r="Y21" s="28" t="s">
         <v>9</v>
@@ -3880,7 +3913,7 @@
       </c>
       <c r="AD21" s="31">
         <f t="shared" si="10"/>
-        <v>2383.6177356712169</v>
+        <v>4767.2354713424338</v>
       </c>
       <c r="AE21" s="34" t="s">
         <v>10</v>
@@ -3900,7 +3933,7 @@
       </c>
       <c r="AJ21" s="37">
         <f t="shared" si="11"/>
-        <v>1804.0132776092867</v>
+        <v>3608.0265552185733</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
@@ -3910,60 +3943,120 @@
       <c r="B22" s="5">
         <v>19</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="5"/>
+      <c r="C22" s="89">
+        <v>19118.3</v>
+      </c>
+      <c r="D22" s="89">
+        <v>17776.7</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="5"/>
+        <v>-7.546957534300508E-2</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="6"/>
+        <v>2582.9180464133128</v>
+      </c>
       <c r="G22" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="11">
         <v>19</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="14"/>
+      <c r="I22" s="90">
+        <v>2199.06</v>
+      </c>
+      <c r="J22" s="90">
+        <v>2805.89</v>
+      </c>
+      <c r="K22" s="13">
+        <f t="shared" si="0"/>
+        <v>0.21627006047991901</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" si="7"/>
+        <v>2810.4360765483602</v>
+      </c>
       <c r="M22" s="17" t="s">
         <v>7</v>
       </c>
       <c r="N22" s="17">
         <v>19</v>
       </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="20"/>
+      <c r="O22" s="91">
+        <v>793.9</v>
+      </c>
+      <c r="P22" s="91">
+        <v>826.82</v>
+      </c>
+      <c r="Q22" s="19">
+        <f t="shared" si="1"/>
+        <v>3.9815195568563978E-2</v>
+      </c>
+      <c r="R22" s="20">
+        <f t="shared" si="8"/>
+        <v>2807.5626332715965</v>
+      </c>
       <c r="S22" s="22" t="s">
         <v>8</v>
       </c>
       <c r="T22" s="22">
         <v>19</v>
       </c>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="25"/>
+      <c r="U22" s="94">
+        <v>0.777447</v>
+      </c>
+      <c r="V22" s="94">
+        <v>0.79125699999999999</v>
+      </c>
+      <c r="W22" s="24">
+        <f t="shared" si="2"/>
+        <v>1.7453242119816935E-2</v>
+      </c>
+      <c r="X22" s="25">
+        <f t="shared" si="9"/>
+        <v>3427.6208818355672</v>
+      </c>
       <c r="Y22" s="28" t="s">
         <v>9</v>
       </c>
       <c r="Z22" s="28">
         <v>19</v>
       </c>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
+      <c r="AA22" s="92">
+        <v>359.13</v>
+      </c>
+      <c r="AB22" s="92">
+        <v>350.25</v>
+      </c>
+      <c r="AC22" s="30">
+        <f t="shared" si="3"/>
+        <v>-2.5353319057815831E-2</v>
+      </c>
+      <c r="AD22" s="31">
+        <f t="shared" si="10"/>
+        <v>4646.370229413752</v>
+      </c>
       <c r="AE22" s="34" t="s">
         <v>10</v>
       </c>
       <c r="AF22" s="34">
         <v>19</v>
       </c>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="37"/>
+      <c r="AG22" s="95">
+        <v>4.24</v>
+      </c>
+      <c r="AH22" s="95">
+        <v>5.37</v>
+      </c>
+      <c r="AI22" s="36">
+        <f t="shared" si="4"/>
+        <v>0.21042830540037241</v>
+      </c>
+      <c r="AJ22" s="37">
+        <f t="shared" si="11"/>
+        <v>4367.2574690727606</v>
+      </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
@@ -3972,60 +4065,120 @@
       <c r="B23" s="5">
         <v>20</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="5"/>
+      <c r="C23" s="89">
+        <v>17760.3</v>
+      </c>
+      <c r="D23" s="89">
+        <v>16624.599999999999</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="5"/>
+        <v>-6.8314425610240301E-2</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="6"/>
+        <v>2406.4674836742633</v>
+      </c>
       <c r="G23" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="11">
         <v>20</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="14"/>
+      <c r="I23" s="90">
+        <v>2825.03</v>
+      </c>
+      <c r="J23" s="90">
+        <v>3923.07</v>
+      </c>
+      <c r="K23" s="13">
+        <f t="shared" si="0"/>
+        <v>0.27989304294850714</v>
+      </c>
+      <c r="L23" s="14">
+        <f t="shared" si="7"/>
+        <v>3597.0575820257445</v>
+      </c>
       <c r="M23" s="17" t="s">
         <v>7</v>
       </c>
       <c r="N23" s="17">
         <v>20</v>
       </c>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="20"/>
+      <c r="O23" s="91">
+        <v>827.52</v>
+      </c>
+      <c r="P23" s="91">
+        <v>819.09</v>
+      </c>
+      <c r="Q23" s="19">
+        <f t="shared" si="1"/>
+        <v>-1.0291909313994738E-2</v>
+      </c>
+      <c r="R23" s="20">
+        <f t="shared" si="8"/>
+        <v>2778.6674532566049</v>
+      </c>
       <c r="S23" s="22" t="s">
         <v>8</v>
       </c>
       <c r="T23" s="22">
         <v>20</v>
       </c>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="25"/>
+      <c r="U23" s="94">
+        <v>0.78717099999999995</v>
+      </c>
+      <c r="V23" s="94">
+        <v>0.77596399999999999</v>
+      </c>
+      <c r="W23" s="24">
+        <f t="shared" si="2"/>
+        <v>-1.4442680330530755E-2</v>
+      </c>
+      <c r="X23" s="25">
+        <f t="shared" si="9"/>
+        <v>3378.1168491449644</v>
+      </c>
       <c r="Y23" s="28" t="s">
         <v>9</v>
       </c>
       <c r="Z23" s="28">
         <v>20</v>
       </c>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
+      <c r="AA23" s="92">
+        <v>349.6</v>
+      </c>
+      <c r="AB23" s="92">
+        <v>314.62</v>
+      </c>
+      <c r="AC23" s="30">
+        <f t="shared" si="3"/>
+        <v>-0.11118174305511416</v>
+      </c>
+      <c r="AD23" s="31">
+        <f t="shared" si="10"/>
+        <v>4129.7786884281404</v>
+      </c>
       <c r="AE23" s="34" t="s">
         <v>10</v>
       </c>
       <c r="AF23" s="34">
         <v>20</v>
       </c>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="37"/>
+      <c r="AG23" s="95">
+        <v>5.37</v>
+      </c>
+      <c r="AH23" s="95">
+        <v>5.09</v>
+      </c>
+      <c r="AI23" s="36">
+        <f t="shared" si="4"/>
+        <v>-5.5009823182711248E-2</v>
+      </c>
+      <c r="AJ23" s="37">
+        <f t="shared" si="11"/>
+        <v>4127.0154079056929</v>
+      </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
@@ -4034,60 +4187,120 @@
       <c r="B24" s="5">
         <v>21</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="5"/>
+      <c r="C24" s="89">
+        <v>16642.400000000001</v>
+      </c>
+      <c r="D24" s="89">
+        <v>15802.9</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="5"/>
+        <v>-5.3123160938815146E-2</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="6"/>
+        <v>2278.6283242450099</v>
+      </c>
       <c r="G24" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="11">
         <v>21</v>
       </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="14"/>
+      <c r="I24" s="90">
+        <v>3909</v>
+      </c>
+      <c r="J24" s="90">
+        <v>3267.17</v>
+      </c>
+      <c r="K24" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.19644830235341287</v>
+      </c>
+      <c r="L24" s="14">
+        <f t="shared" si="7"/>
+        <v>2890.4217265693151</v>
+      </c>
       <c r="M24" s="17" t="s">
         <v>7</v>
       </c>
       <c r="N24" s="17">
         <v>21</v>
       </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="20"/>
+      <c r="O24" s="91">
+        <v>820.24</v>
+      </c>
+      <c r="P24" s="91">
+        <v>821.06</v>
+      </c>
+      <c r="Q24" s="19">
+        <f t="shared" si="1"/>
+        <v>9.9870898594492039E-4</v>
+      </c>
+      <c r="R24" s="20">
+        <f t="shared" si="8"/>
+        <v>2781.4425334111247</v>
+      </c>
       <c r="S24" s="22" t="s">
         <v>8</v>
       </c>
       <c r="T24" s="22">
         <v>21</v>
       </c>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="25"/>
+      <c r="U24" s="94">
+        <v>0.78251499999999996</v>
+      </c>
+      <c r="V24" s="94">
+        <v>1.19</v>
+      </c>
+      <c r="W24" s="24">
+        <f t="shared" si="2"/>
+        <v>0.34242436974789914</v>
+      </c>
+      <c r="X24" s="25">
+        <f t="shared" si="9"/>
+        <v>4534.8663821481878</v>
+      </c>
       <c r="Y24" s="28" t="s">
         <v>9</v>
       </c>
       <c r="Z24" s="28">
         <v>21</v>
       </c>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
+      <c r="AA24" s="92">
+        <v>314.66000000000003</v>
+      </c>
+      <c r="AB24" s="92">
+        <v>317.45999999999998</v>
+      </c>
+      <c r="AC24" s="30">
+        <f t="shared" si="3"/>
+        <v>8.820008820008678E-3</v>
+      </c>
+      <c r="AD24" s="31">
+        <f t="shared" si="10"/>
+        <v>4166.20337288476</v>
+      </c>
       <c r="AE24" s="34" t="s">
         <v>10</v>
       </c>
       <c r="AF24" s="34">
         <v>21</v>
       </c>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="37"/>
+      <c r="AG24" s="95">
+        <v>5.08</v>
+      </c>
+      <c r="AH24" s="95">
+        <v>5.03</v>
+      </c>
+      <c r="AI24" s="36">
+        <f t="shared" si="4"/>
+        <v>-9.9403578528826676E-3</v>
+      </c>
+      <c r="AJ24" s="37">
+        <f t="shared" si="11"/>
+        <v>4085.9913978867498</v>
+      </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
@@ -4096,60 +4309,120 @@
       <c r="B25" s="5">
         <v>22</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="5"/>
+      <c r="C25" s="89">
+        <v>15898</v>
+      </c>
+      <c r="D25" s="89">
+        <v>13831.8</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.14938041325062543</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="6"/>
+        <v>1938.2458835247103</v>
+      </c>
       <c r="G25" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="11">
         <v>22</v>
       </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="14"/>
+      <c r="I25" s="90">
+        <v>3324</v>
+      </c>
+      <c r="J25" s="90">
+        <v>2696.69</v>
+      </c>
+      <c r="K25" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.23262221464091162</v>
+      </c>
+      <c r="L25" s="14">
+        <f t="shared" si="7"/>
+        <v>2218.0454232885536</v>
+      </c>
       <c r="M25" s="17" t="s">
         <v>7</v>
       </c>
       <c r="N25" s="17">
         <v>22</v>
       </c>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="20"/>
+      <c r="O25" s="91">
+        <v>822.64</v>
+      </c>
+      <c r="P25" s="91">
+        <v>674.86</v>
+      </c>
+      <c r="Q25" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.21897875114838627</v>
+      </c>
+      <c r="R25" s="20">
+        <f t="shared" si="8"/>
+        <v>2172.3657210537531</v>
+      </c>
       <c r="S25" s="22" t="s">
         <v>8</v>
       </c>
       <c r="T25" s="22">
         <v>22</v>
       </c>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="25"/>
+      <c r="U25" s="94">
+        <v>1.17</v>
+      </c>
+      <c r="V25" s="94">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="W25" s="24">
+        <f t="shared" si="2"/>
+        <v>-2.6315789473684237E-2</v>
+      </c>
+      <c r="X25" s="25">
+        <f t="shared" si="9"/>
+        <v>4415.5277931442879</v>
+      </c>
       <c r="Y25" s="28" t="s">
         <v>9</v>
       </c>
       <c r="Z25" s="28">
         <v>22</v>
       </c>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
+      <c r="AA25" s="92">
+        <v>319.26</v>
+      </c>
+      <c r="AB25" s="92">
+        <v>264.93</v>
+      </c>
+      <c r="AC25" s="30">
+        <f t="shared" si="3"/>
+        <v>-0.2050730381610236</v>
+      </c>
+      <c r="AD25" s="31">
+        <f t="shared" si="10"/>
+        <v>3311.8273896105784</v>
+      </c>
       <c r="AE25" s="34" t="s">
         <v>10</v>
       </c>
       <c r="AF25" s="34">
         <v>22</v>
       </c>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="34"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="37"/>
+      <c r="AG25" s="95">
+        <v>5.08</v>
+      </c>
+      <c r="AH25" s="95">
+        <v>3.45</v>
+      </c>
+      <c r="AI25" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.47246376811594198</v>
+      </c>
+      <c r="AJ25" s="37">
+        <f t="shared" si="11"/>
+        <v>2155.5085055518512</v>
+      </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
@@ -4158,60 +4431,120 @@
       <c r="B26" s="5">
         <v>23</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="5"/>
+      <c r="C26" s="89">
+        <v>13948.7</v>
+      </c>
+      <c r="D26" s="89">
+        <v>14699.2</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="5"/>
+        <v>5.1057200391858057E-2</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="6"/>
+        <v>2037.2072920085254</v>
+      </c>
       <c r="G26" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="11">
         <v>23</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="14"/>
+      <c r="I26" s="90">
+        <v>2746.95</v>
+      </c>
+      <c r="J26" s="90">
+        <v>3257.08</v>
+      </c>
+      <c r="K26" s="13">
+        <f t="shared" si="0"/>
+        <v>0.15662188217667361</v>
+      </c>
+      <c r="L26" s="14">
+        <f t="shared" si="7"/>
+        <v>2565.4398722373635</v>
+      </c>
       <c r="M26" s="17" t="s">
         <v>7</v>
       </c>
       <c r="N26" s="17">
         <v>23</v>
       </c>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="20"/>
+      <c r="O26" s="91">
+        <v>681.32</v>
+      </c>
+      <c r="P26" s="91">
+        <v>719.39</v>
+      </c>
+      <c r="Q26" s="19">
+        <f t="shared" si="1"/>
+        <v>5.2919834860089714E-2</v>
+      </c>
+      <c r="R26" s="20">
+        <f t="shared" si="8"/>
+        <v>2287.3269562676373</v>
+      </c>
       <c r="S26" s="22" t="s">
         <v>8</v>
       </c>
       <c r="T26" s="22">
         <v>23</v>
       </c>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="25"/>
+      <c r="U26" s="94">
+        <v>1.17</v>
+      </c>
+      <c r="V26" s="94">
+        <v>1.17</v>
+      </c>
+      <c r="W26" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="25">
+        <f t="shared" si="9"/>
+        <v>4415.5277931442879</v>
+      </c>
       <c r="Y26" s="28" t="s">
         <v>9</v>
       </c>
       <c r="Z26" s="28">
         <v>23</v>
       </c>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
+      <c r="AA26" s="92">
+        <v>269.27</v>
+      </c>
+      <c r="AB26" s="92">
+        <v>288.27</v>
+      </c>
+      <c r="AC26" s="30">
+        <f t="shared" si="3"/>
+        <v>6.5910431192978805E-2</v>
+      </c>
+      <c r="AD26" s="31">
+        <f t="shared" si="10"/>
+        <v>3530.1113608965288</v>
+      </c>
       <c r="AE26" s="34" t="s">
         <v>10</v>
       </c>
       <c r="AF26" s="34">
         <v>23</v>
       </c>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="34"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="37"/>
+      <c r="AG26" s="95">
+        <v>3.51</v>
+      </c>
+      <c r="AH26" s="95">
+        <v>3.61</v>
+      </c>
+      <c r="AI26" s="36">
+        <f t="shared" si="4"/>
+        <v>2.7700831024930775E-2</v>
+      </c>
+      <c r="AJ26" s="37">
+        <f t="shared" si="11"/>
+        <v>2215.2178824369439</v>
+      </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
@@ -4220,60 +4553,120 @@
       <c r="B27" s="5">
         <v>24</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="5"/>
+      <c r="C27" s="89">
+        <v>14608.2</v>
+      </c>
+      <c r="D27" s="89">
+        <v>13925.8</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="5"/>
+        <v>-4.9002570767927266E-2</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="6"/>
+        <v>1937.3788975129403</v>
+      </c>
       <c r="G27" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="11">
         <v>24</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="14"/>
+      <c r="I27" s="90">
+        <v>3260.55</v>
+      </c>
+      <c r="J27" s="90">
+        <v>2903.12</v>
+      </c>
+      <c r="K27" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.1231192647909836</v>
+      </c>
+      <c r="L27" s="14">
+        <f t="shared" si="7"/>
+        <v>2249.5848013020245</v>
+      </c>
       <c r="M27" s="17" t="s">
         <v>7</v>
       </c>
       <c r="N27" s="17">
         <v>24</v>
       </c>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="20"/>
+      <c r="O27" s="91">
+        <v>721.77</v>
+      </c>
+      <c r="P27" s="91">
+        <v>694.15</v>
+      </c>
+      <c r="Q27" s="19">
+        <f t="shared" si="1"/>
+        <v>-3.9789670820427871E-2</v>
+      </c>
+      <c r="R27" s="20">
+        <f t="shared" si="8"/>
+        <v>2196.3149696190567</v>
+      </c>
       <c r="S27" s="22" t="s">
         <v>8</v>
       </c>
       <c r="T27" s="22">
         <v>24</v>
       </c>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="25"/>
+      <c r="U27" s="94">
+        <v>1.18</v>
+      </c>
+      <c r="V27" s="94">
+        <v>1.04</v>
+      </c>
+      <c r="W27" s="24">
+        <f t="shared" si="2"/>
+        <v>-0.13461538461538453</v>
+      </c>
+      <c r="X27" s="25">
+        <f t="shared" si="9"/>
+        <v>3821.1298209902498</v>
+      </c>
       <c r="Y27" s="28" t="s">
         <v>9</v>
       </c>
       <c r="Z27" s="28">
         <v>24</v>
       </c>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
+      <c r="AA27" s="92">
+        <v>291.01</v>
+      </c>
+      <c r="AB27" s="92">
+        <v>275.98</v>
+      </c>
+      <c r="AC27" s="30">
+        <f t="shared" si="3"/>
+        <v>-5.4460468149865833E-2</v>
+      </c>
+      <c r="AD27" s="31">
+        <f t="shared" si="10"/>
+        <v>3337.8598435609438</v>
+      </c>
       <c r="AE27" s="34" t="s">
         <v>10</v>
       </c>
       <c r="AF27" s="34">
         <v>24</v>
       </c>
-      <c r="AG27" s="34"/>
-      <c r="AH27" s="34"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="37"/>
+      <c r="AG27" s="95">
+        <v>3.61</v>
+      </c>
+      <c r="AH27" s="95">
+        <v>3.48</v>
+      </c>
+      <c r="AI27" s="36">
+        <f t="shared" si="4"/>
+        <v>-3.7356321839080428E-2</v>
+      </c>
+      <c r="AJ27" s="37">
+        <f t="shared" si="11"/>
+        <v>2132.465490276943</v>
+      </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
@@ -4282,60 +4675,120 @@
       <c r="B28" s="5">
         <v>25</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="5"/>
+      <c r="C28" s="89">
+        <v>13995.9</v>
+      </c>
+      <c r="D28" s="89">
+        <v>14026.6</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="5"/>
+        <v>2.1886986154877682E-3</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="6"/>
+        <v>1941.6192360236021</v>
+      </c>
       <c r="G28" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="11">
         <v>25</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="14"/>
+      <c r="I28" s="90">
+        <v>2929.35</v>
+      </c>
+      <c r="J28" s="90">
+        <v>2954.69</v>
+      </c>
+      <c r="K28" s="13">
+        <f t="shared" si="0"/>
+        <v>8.5761958107280784E-3</v>
+      </c>
+      <c r="L28" s="14">
+        <f t="shared" si="7"/>
+        <v>2268.8776810508284</v>
+      </c>
       <c r="M28" s="17" t="s">
         <v>7</v>
       </c>
       <c r="N28" s="17">
         <v>25</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="20"/>
+      <c r="O28" s="91">
+        <v>698.87</v>
+      </c>
+      <c r="P28" s="91">
+        <v>765.83</v>
+      </c>
+      <c r="Q28" s="19">
+        <f t="shared" si="1"/>
+        <v>8.7434548137315118E-2</v>
+      </c>
+      <c r="R28" s="20">
+        <f t="shared" si="8"/>
+        <v>2388.3487765549198</v>
+      </c>
       <c r="S28" s="22" t="s">
         <v>8</v>
       </c>
       <c r="T28" s="22">
         <v>25</v>
       </c>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="25"/>
+      <c r="U28" s="94">
+        <v>1.05</v>
+      </c>
+      <c r="V28" s="94">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="W28" s="24">
+        <f t="shared" si="2"/>
+        <v>6.2500000000000056E-2</v>
+      </c>
+      <c r="X28" s="25">
+        <f t="shared" si="9"/>
+        <v>4059.9504348021405</v>
+      </c>
       <c r="Y28" s="28" t="s">
         <v>9</v>
       </c>
       <c r="Z28" s="28">
         <v>25</v>
       </c>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
+      <c r="AA28" s="92">
+        <v>277.49</v>
+      </c>
+      <c r="AB28" s="92">
+        <v>273.39</v>
+      </c>
+      <c r="AC28" s="30">
+        <f t="shared" si="3"/>
+        <v>-1.4996890888474425E-2</v>
+      </c>
+      <c r="AD28" s="31">
+        <f t="shared" si="10"/>
+        <v>3287.8023236860399</v>
+      </c>
       <c r="AE28" s="34" t="s">
         <v>10</v>
       </c>
       <c r="AF28" s="34">
         <v>25</v>
       </c>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="37"/>
+      <c r="AG28" s="95">
+        <v>3.49</v>
+      </c>
+      <c r="AH28" s="95">
+        <v>3.5</v>
+      </c>
+      <c r="AI28" s="36">
+        <f t="shared" si="4"/>
+        <v>2.8571428571427964E-3</v>
+      </c>
+      <c r="AJ28" s="37">
+        <f t="shared" si="11"/>
+        <v>2138.5582488205914</v>
+      </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -4344,60 +4797,120 @@
       <c r="B29" s="5">
         <v>26</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="5"/>
+      <c r="C29" s="89">
+        <v>14036.6</v>
+      </c>
+      <c r="D29" s="89">
+        <v>16099.8</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="5"/>
+        <v>0.12815066025664909</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="6"/>
+        <v>2190.4390230870372</v>
+      </c>
       <c r="G29" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="11">
         <v>26</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="14"/>
+      <c r="I29" s="90">
+        <v>2947.74</v>
+      </c>
+      <c r="J29" s="12">
+        <v>3108.89</v>
+      </c>
+      <c r="K29" s="13">
+        <f t="shared" si="0"/>
+        <v>5.1835220930943227E-2</v>
+      </c>
+      <c r="L29" s="14">
+        <f t="shared" si="7"/>
+        <v>2386.485456913384</v>
+      </c>
       <c r="M29" s="17" t="s">
         <v>7</v>
       </c>
       <c r="N29" s="17">
         <v>26</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="20"/>
+      <c r="O29" s="91">
+        <v>763.37</v>
+      </c>
+      <c r="P29" s="91">
+        <v>773.84</v>
+      </c>
+      <c r="Q29" s="19">
+        <f t="shared" si="1"/>
+        <v>1.3529928667424826E-2</v>
+      </c>
+      <c r="R29" s="20">
+        <f t="shared" si="8"/>
+        <v>2420.6629651346393</v>
+      </c>
       <c r="S29" s="22" t="s">
         <v>8</v>
       </c>
       <c r="T29" s="22">
         <v>26</v>
       </c>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="25"/>
+      <c r="U29" s="94">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="V29" s="94">
+        <v>1.19</v>
+      </c>
+      <c r="W29" s="24">
+        <f t="shared" si="2"/>
+        <v>5.8823529411764573E-2</v>
+      </c>
+      <c r="X29" s="25">
+        <f t="shared" si="9"/>
+        <v>4298.7710486140304</v>
+      </c>
       <c r="Y29" s="28" t="s">
         <v>9</v>
       </c>
       <c r="Z29" s="28">
         <v>26</v>
       </c>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
+      <c r="AA29" s="92">
+        <v>273.11</v>
+      </c>
+      <c r="AB29" s="92">
+        <v>286.5</v>
+      </c>
+      <c r="AC29" s="30">
+        <f t="shared" si="3"/>
+        <v>4.673647469458983E-2</v>
+      </c>
+      <c r="AD29" s="31">
+        <f t="shared" si="10"/>
+        <v>3441.4626137878063</v>
+      </c>
       <c r="AE29" s="34" t="s">
         <v>10</v>
       </c>
       <c r="AF29" s="34">
         <v>26</v>
       </c>
-      <c r="AG29" s="34"/>
-      <c r="AH29" s="34"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="37"/>
+      <c r="AG29" s="95">
+        <v>3.49</v>
+      </c>
+      <c r="AH29" s="95">
+        <v>3.8</v>
+      </c>
+      <c r="AI29" s="36">
+        <f t="shared" si="4"/>
+        <v>8.1578947368420959E-2</v>
+      </c>
+      <c r="AJ29" s="37">
+        <f t="shared" si="11"/>
+        <v>2313.0195796454291</v>
+      </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
@@ -4732,29 +5245,29 @@
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="81" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:8" s="80" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="79" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4764,31 +5277,31 @@
       </c>
       <c r="B2" s="44">
         <f>Coins!F4</f>
-        <v>892.32783021733064</v>
+        <v>1784.6556604346613</v>
       </c>
       <c r="C2" s="48">
         <f>Coins!L4</f>
-        <v>879.40743475446902</v>
+        <v>1758.814869508938</v>
       </c>
       <c r="D2" s="52">
         <f>Coins!R4</f>
-        <v>871.43296037495907</v>
+        <v>1742.8659207499181</v>
       </c>
       <c r="E2" s="56">
         <f>Coins!X4</f>
-        <v>850.75942155946382</v>
+        <v>1701.5188431189276</v>
       </c>
       <c r="F2" s="60">
         <f>Coins!AD4</f>
-        <v>925.92592592592598</v>
+        <v>1851.851851851852</v>
       </c>
       <c r="G2" s="64">
         <f>Coins!AJ4</f>
-        <v>913.79310344827582</v>
+        <v>1827.5862068965516</v>
       </c>
       <c r="H2" s="68">
         <f>SUM(B2:G2)</f>
-        <v>5333.6466762804248</v>
+        <v>10667.29335256085</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4797,31 +5310,31 @@
       </c>
       <c r="B3" s="45">
         <f>Coins!F5</f>
-        <v>900.08713258941907</v>
+        <v>1800.1742651788381</v>
       </c>
       <c r="C3" s="49">
         <f>Coins!L5</f>
-        <v>862.8118352805036</v>
+        <v>1725.6236705610072</v>
       </c>
       <c r="D3" s="53">
         <f>Coins!R5</f>
-        <v>865.03988223217152</v>
+        <v>1730.079764464343</v>
       </c>
       <c r="E3" s="57">
         <f>Coins!X5</f>
-        <v>850.21332013501319</v>
+        <v>1700.4266402700264</v>
       </c>
       <c r="F3" s="61">
         <f>Coins!AD5</f>
-        <v>938.29868959505984</v>
+        <v>1876.5973791901197</v>
       </c>
       <c r="G3" s="65">
         <f>Coins!AJ5</f>
-        <v>926.4846743295019</v>
+        <v>1852.9693486590038</v>
       </c>
       <c r="H3" s="69">
         <f t="shared" ref="H3:H32" si="0">SUM(B3:G3)</f>
-        <v>5342.9355341616692</v>
+        <v>10685.871068323338</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -4830,31 +5343,31 @@
       </c>
       <c r="B4" s="45">
         <f>Coins!F6</f>
-        <v>919.20460427478679</v>
+        <v>1838.4092085495736</v>
       </c>
       <c r="C4" s="49">
         <f>Coins!L6</f>
-        <v>931.71266436956046</v>
+        <v>1863.4253287391209</v>
       </c>
       <c r="D4" s="53">
         <f>Coins!R6</f>
-        <v>869.03223115736034</v>
+        <v>1738.0644623147207</v>
       </c>
       <c r="E4" s="57">
         <f>Coins!X6</f>
-        <v>840.20835498862607</v>
+        <v>1680.4167099772521</v>
       </c>
       <c r="F4" s="61">
         <f>Coins!AD6</f>
-        <v>948.2135582289402</v>
+        <v>1896.4271164578804</v>
       </c>
       <c r="G4" s="65">
         <f>Coins!AJ6</f>
-        <v>1143.3215130023641</v>
+        <v>2286.6430260047282</v>
       </c>
       <c r="H4" s="69">
         <f t="shared" si="0"/>
-        <v>5651.6929260216384</v>
+        <v>11303.385852043277</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -4863,31 +5376,31 @@
       </c>
       <c r="B5" s="45">
         <f>Coins!F7</f>
-        <v>946.1565424538627</v>
+        <v>1892.3130849077254</v>
       </c>
       <c r="C5" s="49">
         <f>Coins!L7</f>
-        <v>941.61519858488771</v>
+        <v>1883.2303971697754</v>
       </c>
       <c r="D5" s="53">
         <f>Coins!R7</f>
-        <v>876.70233698318555</v>
+        <v>1753.4046739663711</v>
       </c>
       <c r="E5" s="57">
         <f>Coins!X7</f>
-        <v>842.36875916517852</v>
+        <v>1684.737518330357</v>
       </c>
       <c r="F5" s="61">
         <f>Coins!AD7</f>
-        <v>974.04746560969784</v>
+        <v>1948.0949312193957</v>
       </c>
       <c r="G5" s="65">
         <f>Coins!AJ7</f>
-        <v>1503.7163377531092</v>
+        <v>3007.4326755062184</v>
       </c>
       <c r="H5" s="69">
         <f t="shared" si="0"/>
-        <v>6084.6066405499205</v>
+        <v>12169.213281099841</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -4896,31 +5409,31 @@
       </c>
       <c r="B6" s="45">
         <f>Coins!F8</f>
-        <v>964.49737181994919</v>
+        <v>1928.9947436398984</v>
       </c>
       <c r="C6" s="49">
         <f>Coins!L8</f>
-        <v>892.51716202918465</v>
+        <v>1785.0343240583693</v>
       </c>
       <c r="D6" s="53">
         <f>Coins!R8</f>
-        <v>863.43674515480495</v>
+        <v>1726.8734903096099</v>
       </c>
       <c r="E6" s="57">
         <f>Coins!X8</f>
-        <v>816.70759327206406</v>
+        <v>1633.4151865441281</v>
       </c>
       <c r="F6" s="61">
         <f>Coins!AD8</f>
-        <v>956.16456292076987</v>
+        <v>1912.3291258415397</v>
       </c>
       <c r="G6" s="65">
         <f>Coins!AJ8</f>
-        <v>1910.9728458945763</v>
+        <v>3821.9456917891525</v>
       </c>
       <c r="H6" s="69">
         <f t="shared" si="0"/>
-        <v>6404.2962810913496</v>
+        <v>12808.592562182699</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -4929,31 +5442,31 @@
       </c>
       <c r="B7" s="45">
         <f>Coins!F9</f>
-        <v>1124.3144817249151</v>
+        <v>2248.6289634498303</v>
       </c>
       <c r="C7" s="49">
         <f>Coins!L9</f>
-        <v>849.835357462248</v>
+        <v>1699.670714924496</v>
       </c>
       <c r="D7" s="53">
         <f>Coins!R9</f>
-        <v>794.92025222983011</v>
+        <v>1589.8405044596602</v>
       </c>
       <c r="E7" s="57">
         <f>Coins!X9</f>
-        <v>771.50040607051073</v>
+        <v>1543.0008121410215</v>
       </c>
       <c r="F7" s="61">
         <f>Coins!AD9</f>
-        <v>935.86929118164426</v>
+        <v>1871.7385823632885</v>
       </c>
       <c r="G7" s="65">
         <f>Coins!AJ9</f>
-        <v>2152.0359342528373</v>
+        <v>4304.0718685056745</v>
       </c>
       <c r="H7" s="69">
         <f t="shared" si="0"/>
-        <v>6628.4757229219858</v>
+        <v>13256.951445843972</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -4962,31 +5475,31 @@
       </c>
       <c r="B8" s="45">
         <f>Coins!F10</f>
-        <v>1352.5478655690943</v>
+        <v>2705.0957311381885</v>
       </c>
       <c r="C8" s="49">
         <f>Coins!L10</f>
-        <v>786.12308711926744</v>
+        <v>1572.2461742385349</v>
       </c>
       <c r="D8" s="53">
         <f>Coins!R10</f>
-        <v>809.63252595264464</v>
+        <v>1619.2650519052893</v>
       </c>
       <c r="E8" s="57">
         <f>Coins!X10</f>
-        <v>737.56897179536406</v>
+        <v>1475.1379435907281</v>
       </c>
       <c r="F8" s="61">
         <f>Coins!AD10</f>
-        <v>919.77793802163842</v>
+        <v>1839.5558760432768</v>
       </c>
       <c r="G8" s="65">
         <f>Coins!AJ10</f>
-        <v>1980.4968380442776</v>
+        <v>3960.9936760885553</v>
       </c>
       <c r="H8" s="69">
         <f t="shared" si="0"/>
-        <v>6586.1472265022867</v>
+        <v>13172.294453004573</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -4995,31 +5508,31 @@
       </c>
       <c r="B9" s="45">
         <f>Coins!F11</f>
-        <v>1251.8581729924483</v>
+        <v>2503.7163459848966</v>
       </c>
       <c r="C9" s="49">
         <f>Coins!L11</f>
-        <v>858.59140145507604</v>
+        <v>1717.1828029101521</v>
       </c>
       <c r="D9" s="53">
         <f>Coins!R11</f>
-        <v>846.98679726383818</v>
+        <v>1693.9735945276764</v>
       </c>
       <c r="E9" s="57">
         <f>Coins!X11</f>
-        <v>820.91097452209931</v>
+        <v>1641.8219490441986</v>
       </c>
       <c r="F9" s="61">
         <f>Coins!AD11</f>
-        <v>1115.152474796439</v>
+        <v>2230.3049495928781</v>
       </c>
       <c r="G9" s="65">
         <f>Coins!AJ11</f>
-        <v>2324.4154506387931</v>
+        <v>4648.8309012775862</v>
       </c>
       <c r="H9" s="69">
         <f t="shared" si="0"/>
-        <v>7217.915271668694</v>
+        <v>14435.830543337388</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5028,31 +5541,31 @@
       </c>
       <c r="B10" s="45">
         <f>Coins!F12</f>
-        <v>1140.9178488109155</v>
+        <v>2281.8356976218311</v>
       </c>
       <c r="C10" s="49">
         <f>Coins!L12</f>
-        <v>825.36350138174328</v>
+        <v>1650.7270027634866</v>
       </c>
       <c r="D10" s="53">
         <f>Coins!R12</f>
-        <v>875.89346388217746</v>
+        <v>1751.7869277643549</v>
       </c>
       <c r="E10" s="57">
         <f>Coins!X12</f>
-        <v>795.90537436154989</v>
+        <v>1591.8107487230998</v>
       </c>
       <c r="F10" s="61">
         <f>Coins!AD12</f>
-        <v>1314.5639196582604</v>
+        <v>2629.1278393165207</v>
       </c>
       <c r="G10" s="65">
         <f>Coins!AJ12</f>
-        <v>2140.6475624472646</v>
+        <v>4281.2951248945292</v>
       </c>
       <c r="H10" s="69">
         <f t="shared" si="0"/>
-        <v>7093.291670541912</v>
+        <v>14186.583341083824</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5061,31 +5574,31 @@
       </c>
       <c r="B11" s="44">
         <f>Coins!F13</f>
-        <v>1162.1041929112773</v>
+        <v>2324.2083858225546</v>
       </c>
       <c r="C11" s="48">
         <f>Coins!L13</f>
-        <v>769.98659916367671</v>
+        <v>1539.9731983273534</v>
       </c>
       <c r="D11" s="52">
         <f>Coins!R13</f>
-        <v>814.2842772417282</v>
+        <v>1628.5685544834564</v>
       </c>
       <c r="E11" s="56">
         <f>Coins!X13</f>
-        <v>768.35605483843199</v>
+        <v>1536.712109676864</v>
       </c>
       <c r="F11" s="60">
         <f>Coins!AD13</f>
-        <v>1252.929919119998</v>
+        <v>2505.859838239996</v>
       </c>
       <c r="G11" s="64">
         <f>Coins!AJ13</f>
-        <v>1865.9397638765502</v>
+        <v>3731.8795277531003</v>
       </c>
       <c r="H11" s="68">
         <f t="shared" si="0"/>
-        <v>6633.6008071516626</v>
+        <v>13267.201614303325</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5094,31 +5607,31 @@
       </c>
       <c r="B12" s="46">
         <f>Coins!F14</f>
-        <v>1265.6703960181383</v>
+        <v>2531.3407920362765</v>
       </c>
       <c r="C12" s="50">
         <f>Coins!L14</f>
-        <v>825.91067749942749</v>
+        <v>1651.821354998855</v>
       </c>
       <c r="D12" s="54">
         <f>Coins!R14</f>
-        <v>932.48938313941892</v>
+        <v>1864.9787662788378</v>
       </c>
       <c r="E12" s="58">
         <f>Coins!X14</f>
-        <v>814.5048582560853</v>
+        <v>1629.0097165121706</v>
       </c>
       <c r="F12" s="62">
         <f>Coins!AD14</f>
-        <v>1638.6357961824287</v>
+        <v>3277.2715923648575</v>
       </c>
       <c r="G12" s="66">
         <f>Coins!AJ14</f>
-        <v>1922.7482344395364</v>
+        <v>3845.4964688790728</v>
       </c>
       <c r="H12" s="70">
         <f t="shared" si="0"/>
-        <v>7399.959345535035</v>
+        <v>14799.91869107007</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5127,31 +5640,31 @@
       </c>
       <c r="B13" s="45">
         <f>Coins!F15</f>
-        <v>1301.6883024840588</v>
+        <v>2603.3766049681176</v>
       </c>
       <c r="C13" s="49">
         <f>Coins!L15</f>
-        <v>921.87306744436194</v>
+        <v>1843.7461348887239</v>
       </c>
       <c r="D13" s="53">
         <f>Coins!R15</f>
-        <v>1117.3468182262657</v>
+        <v>2234.6936364525313</v>
       </c>
       <c r="E13" s="57">
         <f>Coins!X15</f>
-        <v>1078.962020184422</v>
+        <v>2157.9240403688441</v>
       </c>
       <c r="F13" s="61">
         <f>Coins!AD15</f>
-        <v>2176.1058495228826</v>
+        <v>4352.2116990457653</v>
       </c>
       <c r="G13" s="65">
         <f>Coins!AJ15</f>
-        <v>2110.1347149145759</v>
+        <v>4220.2694298291517</v>
       </c>
       <c r="H13" s="69">
         <f t="shared" si="0"/>
-        <v>8706.1107727765666</v>
+        <v>17412.221545553133</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5160,31 +5673,31 @@
       </c>
       <c r="B14" s="46">
         <f>Coins!F16</f>
-        <v>1215.0740919885691</v>
+        <v>2430.1481839771382</v>
       </c>
       <c r="C14" s="50">
         <f>Coins!L16</f>
-        <v>916.51724095854081</v>
+        <v>1833.0344819170816</v>
       </c>
       <c r="D14" s="54">
         <f>Coins!R16</f>
-        <v>1209.339485674466</v>
+        <v>2418.678971348932</v>
       </c>
       <c r="E14" s="58">
         <f>Coins!X16</f>
-        <v>1304.2860421806781</v>
+        <v>2608.5720843613562</v>
       </c>
       <c r="F14" s="62">
         <f>Coins!AD16</f>
-        <v>2084.3440827022878</v>
+        <v>4168.6881654045756</v>
       </c>
       <c r="G14" s="66">
         <f>Coins!AJ16</f>
-        <v>1785.1017392675874</v>
+        <v>3570.2034785351748</v>
       </c>
       <c r="H14" s="70">
         <f t="shared" si="0"/>
-        <v>8514.6626827721284</v>
+        <v>17029.325365544257</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5193,31 +5706,31 @@
       </c>
       <c r="B15" s="45">
         <f>Coins!F17</f>
-        <v>1228.2342158778924</v>
+        <v>2456.4684317557849</v>
       </c>
       <c r="C15" s="49">
         <f>Coins!L17</f>
-        <v>1086.8812822033749</v>
+        <v>2173.7625644067498</v>
       </c>
       <c r="D15" s="53">
         <f>Coins!R17</f>
-        <v>1201.0491960210109</v>
+        <v>2402.0983920420217</v>
       </c>
       <c r="E15" s="57">
         <f>Coins!X17</f>
-        <v>1898.3026210379792</v>
+        <v>3796.6052420759584</v>
       </c>
       <c r="F15" s="61">
         <f>Coins!AD17</f>
-        <v>1921.1514249544659</v>
+        <v>3842.3028499089319</v>
       </c>
       <c r="G15" s="65">
         <f>Coins!AJ17</f>
-        <v>1652.8719808033218</v>
+        <v>3305.7439616066436</v>
       </c>
       <c r="H15" s="69">
         <f t="shared" si="0"/>
-        <v>8988.4907208980458</v>
+        <v>17976.981441796092</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5226,31 +5739,31 @@
       </c>
       <c r="B16" s="46">
         <f>Coins!F18</f>
-        <v>1304.9238537633835</v>
+        <v>2609.847707526767</v>
       </c>
       <c r="C16" s="50">
         <f>Coins!L18</f>
-        <v>991.55174233389857</v>
+        <v>1983.1034846677971</v>
       </c>
       <c r="D16" s="54">
         <f>Coins!R18</f>
-        <v>1180.1148444854266</v>
+        <v>2360.2296889708532</v>
       </c>
       <c r="E16" s="58">
         <f>Coins!X18</f>
-        <v>1633.2590766662365</v>
+        <v>3266.518153332473</v>
       </c>
       <c r="F16" s="62">
         <f>Coins!AD18</f>
-        <v>2041.6960186678336</v>
+        <v>4083.3920373356673</v>
       </c>
       <c r="G16" s="66">
         <f>Coins!AJ18</f>
-        <v>1707.9677134967658</v>
+        <v>3415.9354269935316</v>
       </c>
       <c r="H16" s="70">
         <f t="shared" si="0"/>
-        <v>8859.5132494135451</v>
+        <v>17719.02649882709</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5259,31 +5772,31 @@
       </c>
       <c r="B17" s="45">
         <f>Coins!F19</f>
-        <v>1421.1846488628519</v>
+        <v>2842.3692977257037</v>
       </c>
       <c r="C17" s="49">
         <f>Coins!L19</f>
-        <v>978.91164225985949</v>
+        <v>1957.823284519719</v>
       </c>
       <c r="D17" s="53">
         <f>Coins!R19</f>
-        <v>1197.0993042629993</v>
+        <v>2394.1986085259987</v>
       </c>
       <c r="E17" s="57">
         <f>Coins!X19</f>
-        <v>1640.0384704150958</v>
+        <v>3280.0769408301917</v>
       </c>
       <c r="F17" s="61">
         <f>Coins!AD19</f>
-        <v>2039.1692516781457</v>
+        <v>4078.3385033562913</v>
       </c>
       <c r="G17" s="65">
         <f>Coins!AJ19</f>
-        <v>1576.2236474419187</v>
+        <v>3152.4472948838375</v>
       </c>
       <c r="H17" s="69">
         <f t="shared" si="0"/>
-        <v>8852.6269649208716</v>
+        <v>17705.253929841743</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5292,31 +5805,31 @@
       </c>
       <c r="B18" s="46">
         <f>Coins!F20</f>
-        <v>1396.3112445448999</v>
+        <v>2792.6224890897997</v>
       </c>
       <c r="C18" s="50">
         <f>Coins!L20</f>
-        <v>1005.4748044153586</v>
+        <v>2010.9496088307171</v>
       </c>
       <c r="D18" s="54">
         <f>Coins!R20</f>
-        <v>1236.5714249930247</v>
+        <v>2473.1428499860494</v>
       </c>
       <c r="E18" s="58">
         <f>Coins!X20</f>
-        <v>1582.0377524252081</v>
+        <v>3164.0755048504161</v>
       </c>
       <c r="F18" s="62">
         <f>Coins!AD20</f>
-        <v>2147.5513021407082</v>
+        <v>4295.1026042814165</v>
       </c>
       <c r="G18" s="66">
         <f>Coins!AJ20</f>
-        <v>1688.5245688881623</v>
+        <v>3377.0491377763246</v>
       </c>
       <c r="H18" s="70">
         <f t="shared" si="0"/>
-        <v>9056.4710974073623</v>
+        <v>18112.942194814725</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5325,31 +5838,31 @@
       </c>
       <c r="B19" s="45">
         <f>Coins!F21</f>
-        <v>1396.8810422715874</v>
+        <v>2793.7620845431748</v>
       </c>
       <c r="C19" s="49">
         <f>Coins!L21</f>
-        <v>1155.350348523506</v>
+        <v>2310.700697047012</v>
       </c>
       <c r="D19" s="53">
         <f>Coins!R21</f>
-        <v>1350.0296231660859</v>
+        <v>2700.0592463321718</v>
       </c>
       <c r="E19" s="57">
         <f>Coins!X21</f>
-        <v>1684.411990616039</v>
+        <v>3368.823981232078</v>
       </c>
       <c r="F19" s="61">
         <f>Coins!AD21</f>
-        <v>2383.6177356712169</v>
+        <v>4767.2354713424338</v>
       </c>
       <c r="G19" s="65">
         <f>Coins!AJ21</f>
-        <v>1804.0132776092867</v>
+        <v>3608.0265552185733</v>
       </c>
       <c r="H19" s="69">
         <f t="shared" si="0"/>
-        <v>9774.3040178577212</v>
+        <v>19548.608035715442</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5358,31 +5871,31 @@
       </c>
       <c r="B20" s="46">
         <f>Coins!F22</f>
-        <v>0</v>
+        <v>2582.9180464133128</v>
       </c>
       <c r="C20" s="50">
         <f>Coins!L22</f>
-        <v>0</v>
+        <v>2810.4360765483602</v>
       </c>
       <c r="D20" s="54">
         <f>Coins!R22</f>
-        <v>0</v>
+        <v>2807.5626332715965</v>
       </c>
       <c r="E20" s="58">
         <f>Coins!X22</f>
-        <v>0</v>
+        <v>3427.6208818355672</v>
       </c>
       <c r="F20" s="62">
         <f>Coins!AD22</f>
-        <v>0</v>
+        <v>4646.370229413752</v>
       </c>
       <c r="G20" s="66">
         <f>Coins!AJ22</f>
-        <v>0</v>
+        <v>4367.2574690727606</v>
       </c>
       <c r="H20" s="70">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20642.165336555347</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5391,31 +5904,31 @@
       </c>
       <c r="B21" s="45">
         <f>Coins!F23</f>
-        <v>0</v>
+        <v>2406.4674836742633</v>
       </c>
       <c r="C21" s="49">
         <f>Coins!L23</f>
-        <v>0</v>
+        <v>3597.0575820257445</v>
       </c>
       <c r="D21" s="53">
         <f>Coins!R23</f>
-        <v>0</v>
+        <v>2778.6674532566049</v>
       </c>
       <c r="E21" s="57">
         <f>Coins!X23</f>
-        <v>0</v>
+        <v>3378.1168491449644</v>
       </c>
       <c r="F21" s="61">
         <f>Coins!AD23</f>
-        <v>0</v>
+        <v>4129.7786884281404</v>
       </c>
       <c r="G21" s="65">
         <f>Coins!AJ23</f>
-        <v>0</v>
+        <v>4127.0154079056929</v>
       </c>
       <c r="H21" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20417.103464435411</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5424,31 +5937,31 @@
       </c>
       <c r="B22" s="46">
         <f>Coins!F24</f>
-        <v>0</v>
+        <v>2278.6283242450099</v>
       </c>
       <c r="C22" s="50">
         <f>Coins!L24</f>
-        <v>0</v>
+        <v>2890.4217265693151</v>
       </c>
       <c r="D22" s="54">
         <f>Coins!R24</f>
-        <v>0</v>
+        <v>2781.4425334111247</v>
       </c>
       <c r="E22" s="58">
         <f>Coins!X24</f>
-        <v>0</v>
+        <v>4534.8663821481878</v>
       </c>
       <c r="F22" s="62">
         <f>Coins!AD24</f>
-        <v>0</v>
+        <v>4166.20337288476</v>
       </c>
       <c r="G22" s="66">
         <f>Coins!AJ24</f>
-        <v>0</v>
+        <v>4085.9913978867498</v>
       </c>
       <c r="H22" s="70">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20737.55373714515</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5457,31 +5970,31 @@
       </c>
       <c r="B23" s="45">
         <f>Coins!F25</f>
-        <v>0</v>
+        <v>1938.2458835247103</v>
       </c>
       <c r="C23" s="49">
         <f>Coins!L25</f>
-        <v>0</v>
+        <v>2218.0454232885536</v>
       </c>
       <c r="D23" s="53">
         <f>Coins!R25</f>
-        <v>0</v>
+        <v>2172.3657210537531</v>
       </c>
       <c r="E23" s="57">
         <f>Coins!X25</f>
-        <v>0</v>
+        <v>4415.5277931442879</v>
       </c>
       <c r="F23" s="61">
         <f>Coins!AD25</f>
-        <v>0</v>
+        <v>3311.8273896105784</v>
       </c>
       <c r="G23" s="65">
         <f>Coins!AJ25</f>
-        <v>0</v>
+        <v>2155.5085055518512</v>
       </c>
       <c r="H23" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16211.520716173734</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5490,31 +6003,31 @@
       </c>
       <c r="B24" s="46">
         <f>Coins!F26</f>
-        <v>0</v>
+        <v>2037.2072920085254</v>
       </c>
       <c r="C24" s="50">
         <f>Coins!L26</f>
-        <v>0</v>
+        <v>2565.4398722373635</v>
       </c>
       <c r="D24" s="54">
         <f>Coins!R26</f>
-        <v>0</v>
+        <v>2287.3269562676373</v>
       </c>
       <c r="E24" s="58">
         <f>Coins!X26</f>
-        <v>0</v>
+        <v>4415.5277931442879</v>
       </c>
       <c r="F24" s="62">
         <f>Coins!AD26</f>
-        <v>0</v>
+        <v>3530.1113608965288</v>
       </c>
       <c r="G24" s="66">
         <f>Coins!AJ26</f>
-        <v>0</v>
+        <v>2215.2178824369439</v>
       </c>
       <c r="H24" s="70">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17050.831156991288</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5523,31 +6036,31 @@
       </c>
       <c r="B25" s="45">
         <f>Coins!F27</f>
-        <v>0</v>
+        <v>1937.3788975129403</v>
       </c>
       <c r="C25" s="49">
         <f>Coins!L27</f>
-        <v>0</v>
+        <v>2249.5848013020245</v>
       </c>
       <c r="D25" s="53">
         <f>Coins!R27</f>
-        <v>0</v>
+        <v>2196.3149696190567</v>
       </c>
       <c r="E25" s="57">
         <f>Coins!X27</f>
-        <v>0</v>
+        <v>3821.1298209902498</v>
       </c>
       <c r="F25" s="61">
         <f>Coins!AD27</f>
-        <v>0</v>
+        <v>3337.8598435609438</v>
       </c>
       <c r="G25" s="65">
         <f>Coins!AJ27</f>
-        <v>0</v>
+        <v>2132.465490276943</v>
       </c>
       <c r="H25" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15674.733823262159</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5556,31 +6069,31 @@
       </c>
       <c r="B26" s="46">
         <f>Coins!F28</f>
-        <v>0</v>
+        <v>1941.6192360236021</v>
       </c>
       <c r="C26" s="50">
         <f>Coins!L28</f>
-        <v>0</v>
+        <v>2268.8776810508284</v>
       </c>
       <c r="D26" s="54">
         <f>Coins!R28</f>
-        <v>0</v>
+        <v>2388.3487765549198</v>
       </c>
       <c r="E26" s="58">
         <f>Coins!X28</f>
-        <v>0</v>
+        <v>4059.9504348021405</v>
       </c>
       <c r="F26" s="62">
         <f>Coins!AD28</f>
-        <v>0</v>
+        <v>3287.8023236860399</v>
       </c>
       <c r="G26" s="66">
         <f>Coins!AJ28</f>
-        <v>0</v>
+        <v>2138.5582488205914</v>
       </c>
       <c r="H26" s="70">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16085.156700938122</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5589,31 +6102,31 @@
       </c>
       <c r="B27" s="45">
         <f>Coins!F29</f>
-        <v>0</v>
+        <v>2190.4390230870372</v>
       </c>
       <c r="C27" s="49">
         <f>Coins!L29</f>
-        <v>0</v>
+        <v>2386.485456913384</v>
       </c>
       <c r="D27" s="53">
         <f>Coins!R29</f>
-        <v>0</v>
+        <v>2420.6629651346393</v>
       </c>
       <c r="E27" s="57">
         <f>Coins!X29</f>
-        <v>0</v>
+        <v>4298.7710486140304</v>
       </c>
       <c r="F27" s="61">
         <f>Coins!AD29</f>
-        <v>0</v>
+        <v>3441.4626137878063</v>
       </c>
       <c r="G27" s="65">
         <f>Coins!AJ29</f>
-        <v>0</v>
+        <v>2313.0195796454291</v>
       </c>
       <c r="H27" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17050.840687182328</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5790,28 +6303,48 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
